--- a/Heuristieken_MM/main/test.xlsx
+++ b/Heuristieken_MM/main/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>order</t>
   </si>
@@ -40,6 +40,9 @@
     <t>netlist_1</t>
   </si>
   <si>
+    <t>netlist_5</t>
+  </si>
+  <si>
     <t>[(41, 48), (22, 34), (30, 38), (2, 14), (44, 32), (31, 41), (27, 42), (7, 34), (15, 35), (34, 8), (22, 43), (39, 8), (50, 13), (23, 45), (1, 40), (4, 11), (38, 44), (49, 35), (26, 7), (19, 43), (40, 4), (2, 38), (6, 40), (38, 3), (14, 46), (49, 3), (47, 1), (38, 41), (9, 5), (40, 39), (13, 6), (17, 9), (34, 32), (31, 33), (33, 26), (27, 40), (1, 4), (45, 35), (31, 8), (18, 36)]</t>
   </si>
   <si>
@@ -49,6 +52,33 @@
     <t>[(43, 4), (4, 49), (15, 7), (37, 3), (15, 5), (11, 33), (48, 23), (42, 2), (22, 7), (40, 19), (23, 50), (36, 15), (6, 32), (49, 25), (13, 15), (9, 43), (29, 44), (21, 41), (27, 25), (47, 36), (1, 13), (47, 13), (36, 27), (22, 8), (44, 16), (1, 22), (36, 20), (32, 12), (44, 31), (13, 2), (5, 31), (50, 14), (5, 30), (9, 29), (33, 30), (35, 46), (15, 40), (18, 26), (29, 28), (32, 26), (38, 17), (3, 4), (4, 32), (5, 24), (6, 45), (34, 31), (37, 5), (30, 10), (47, 1), (40, 16)]</t>
   </si>
   <si>
+    <t>[(16, 6), (16, 18), (11, 8), (2, 1), (17, 10), (8, 10), (24, 5), (4, 24), (6, 8), (10, 14), (8, 14), (23, 12), (23, 17), (21, 20), (20, 3), (16, 22), (16, 9), (12, 25), (7, 15), (4, 6), (11, 5), (4, 1), (14, 19), (4, 16), (23, 14), (20, 6), (4, 5), (21, 11), (3, 21), (24, 9)]</t>
+  </si>
+  <si>
+    <t>[(11, 5), (20, 3), (16, 9), (17, 10), (4, 1), (21, 11), (21, 20), (14, 19), (24, 5), (23, 14), (24, 9), (16, 6), (10, 14), (4, 16), (6, 8), (12, 25), (4, 24), (4, 6), (23, 17), (8, 14), (7, 15), (16, 22), (2, 1), (20, 6), (23, 12), (4, 5), (11, 8), (3, 21), (16, 18), (8, 10)]</t>
+  </si>
+  <si>
+    <t>[(11, 8), (16, 9), (21, 11), (3, 21), (16, 18), (4, 24), (12, 25), (4, 6), (11, 5), (20, 3), (10, 14), (8, 10), (23, 14), (2, 1), (16, 6), (24, 5), (17, 10), (4, 16), (4, 1), (6, 8), (23, 17), (20, 6), (8, 14), (23, 12), (4, 5), (21, 20), (16, 22), (14, 19), (24, 9), (7, 15)]</t>
+  </si>
+  <si>
+    <t>[(4, 6), (16, 22), (16, 9), (4, 1), (2, 1), (17, 10), (8, 14), (24, 5), (14, 19), (24, 9), (4, 5), (21, 11), (11, 8), (11, 5), (20, 3), (21, 20), (23, 12), (16, 6), (10, 14), (20, 6), (6, 8), (23, 17), (12, 25), (4, 24), (3, 21), (16, 18), (8, 10), (7, 15), (23, 14), (4, 16)]</t>
+  </si>
+  <si>
+    <t>[(35, 6), (16, 43), (24, 44), (20, 34), (2, 4), (49, 48), (18, 4), (29, 41), (28, 23), (1, 11), (26, 50), (31, 10), (1, 13), (14, 50), (13, 26), (25, 24), (32, 5), (48, 6), (37, 38), (44, 45), (13, 25), (36, 7), (13, 33), (41, 11), (19, 12), (26, 25), (35, 22), (27, 9), (34, 37), (39, 17), (34, 5), (37, 30), (23, 31), (8, 29), (20, 31), (45, 43), (40, 49), (25, 9), (5, 16), (27, 2), (29, 46), (1, 17), (4, 34), (5, 41), (42, 14), (46, 19), (3, 18), (21, 30), (32, 42), (45, 35), (9, 28), (45, 30), (10, 6), (5, 9), (21, 48), (33, 12), (19, 28), (1, 22), (17, 2), (11, 20)]</t>
+  </si>
+  <si>
+    <t>[(16, 6), (2, 1), (14, 19), (24, 5), (16, 9), (3, 21), (4, 24), (20, 6), (8, 14), (11, 8), (17, 10), (23, 14), (23, 12), (10, 14), (21, 20), (4, 6), (8, 10), (12, 25), (6, 8), (4, 1), (7, 15), (11, 5), (4, 5), (4, 16), (21, 11), (20, 3), (16, 22), (23, 17), (24, 9), (16, 18)]</t>
+  </si>
+  <si>
+    <t>[(3, 21), (11, 5), (12, 25), (23, 14), (8, 10), (17, 10), (16, 18), (23, 12), (11, 8), (16, 6), (21, 20), (20, 6), (4, 24), (24, 5), (14, 19), (21, 11), (16, 9), (16, 22), (7, 15), (4, 5), (4, 16), (24, 9), (6, 8), (4, 1), (4, 6), (20, 3), (23, 17), (10, 14), (2, 1), (8, 14)]</t>
+  </si>
+  <si>
+    <t>[(10, 14), (20, 6), (12, 25), (23, 17), (21, 20), (7, 15), (24, 9), (11, 5), (4, 1), (8, 10), (4, 5), (23, 14), (23, 12), (20, 3), (16, 9), (16, 18), (24, 5), (4, 6), (6, 8), (8, 14), (4, 16), (2, 1), (17, 10), (14, 19), (21, 11), (16, 22), (4, 24), (3, 21), (11, 8), (16, 6)]</t>
+  </si>
+  <si>
+    <t>[(16, 6), (7, 15), (4, 1), (11, 5), (16, 18), (21, 11), (4, 16), (2, 1), (11, 8), (16, 9), (3, 21), (24, 5), (8, 14), (4, 6), (20, 6), (10, 14), (17, 10), (14, 19), (6, 8), (24, 9), (12, 25), (16, 22), (8, 10), (23, 14), (21, 20), (23, 12), (23, 17), (4, 5), (20, 3), (4, 24)]</t>
+  </si>
+  <si>
     <t>['diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal']</t>
   </si>
   <si>
@@ -62,6 +92,12 @@
   </si>
   <si>
     <t>38%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>13%</t>
   </si>
 </sst>
 </file>
@@ -419,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1904</v>
@@ -468,7 +504,7 @@
         <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1904</v>
@@ -491,7 +527,7 @@
         <v>553</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,10 +535,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1904</v>
@@ -514,7 +550,7 @@
         <v>553</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,10 +558,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1904</v>
@@ -537,7 +573,7 @@
         <v>510</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1904</v>
@@ -560,7 +596,7 @@
         <v>510</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1904</v>
@@ -583,7 +619,7 @@
         <v>510</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -591,10 +627,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1904</v>
@@ -606,7 +642,214 @@
         <v>510</v>
       </c>
       <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1428</v>
+      </c>
+      <c r="E9">
+        <v>291</v>
+      </c>
+      <c r="F9">
+        <v>429</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1428</v>
+      </c>
+      <c r="E10">
+        <v>291</v>
+      </c>
+      <c r="F10">
+        <v>437</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>1428</v>
+      </c>
+      <c r="E11">
+        <v>291</v>
+      </c>
+      <c r="F11">
+        <v>397</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1428</v>
+      </c>
+      <c r="E12">
+        <v>291</v>
+      </c>
+      <c r="F12">
+        <v>419</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1904</v>
+      </c>
+      <c r="E13">
+        <v>578</v>
+      </c>
+      <c r="F13">
+        <v>970</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1428</v>
+      </c>
+      <c r="E14">
+        <v>291</v>
+      </c>
+      <c r="F14">
+        <v>367</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1428</v>
+      </c>
+      <c r="E15">
+        <v>291</v>
+      </c>
+      <c r="F15">
+        <v>381</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>1428</v>
+      </c>
+      <c r="E16">
+        <v>291</v>
+      </c>
+      <c r="F16">
+        <v>335</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>1428</v>
+      </c>
+      <c r="E17">
+        <v>291</v>
+      </c>
+      <c r="F17">
+        <v>365</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Heuristieken_MM/main/test.xlsx
+++ b/Heuristieken_MM/main/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>order</t>
   </si>
@@ -37,12 +37,21 @@
     <t>method</t>
   </si>
   <si>
+    <t>collisions</t>
+  </si>
+  <si>
     <t>netlist</t>
   </si>
   <si>
     <t>netlist_4</t>
   </si>
   <si>
+    <t>netlist_1</t>
+  </si>
+  <si>
+    <t>netlist_3</t>
+  </si>
+  <si>
     <t>[(43, 4), (36, 20), (50, 14), (42, 2), (40, 16), (44, 31), (36, 27), (13, 2), (35, 46), (6, 45), (6, 32), (9, 29), (11, 33), (5, 30), (15, 40), (5, 24), (18, 26), (21, 41), (37, 3), (22, 7), (49, 25), (4, 49), (47, 13), (30, 10), (44, 16), (15, 5), (48, 23), (23, 50), (32, 12), (29, 44), (36, 15), (47, 1), (38, 17), (37, 5), (9, 43), (47, 36), (15, 7), (3, 4), (29, 28), (4, 32), (1, 13), (40, 19), (32, 26), (1, 22), (33, 30), (5, 31), (27, 25), (22, 8), (13, 15), (34, 31)]</t>
   </si>
   <si>
@@ -73,9 +82,33 @@
     <t>[(13, 2), (40, 16), (50, 14), (42, 2), (44, 31), (43, 4), (36, 27), (36, 20), (6, 32), (5, 24), (15, 40), (11, 33), (9, 29), (5, 30), (6, 45), (35, 46), (47, 1), (47, 13), (32, 12), (49, 25), (4, 49), (30, 10), (36, 15), (48, 23), (37, 5), (22, 7), (38, 17), (15, 5), (23, 50), (9, 43), (18, 26), (21, 41), (29, 44), (37, 3), (44, 16), (32, 26), (13, 15), (1, 22), (22, 8), (1, 13), (29, 28), (3, 4), (33, 30), (27, 25), (40, 19), (4, 32), (5, 31), (34, 31), (47, 36), (15, 7)]</t>
   </si>
   <si>
+    <t>[(24, 5), (8, 10), (6, 8), (17, 10), (7, 15), (16, 18), (3, 21), (23, 17), (24, 9), (12, 25), (20, 6), (16, 9), (2, 1), (8, 14), (20, 3), (21, 11), (23, 14), (21, 20), (4, 24), (4, 5), (16, 22), (4, 1), (16, 6), (10, 14), (23, 12), (4, 16), (11, 8), (14, 19), (11, 5), (4, 6)]</t>
+  </si>
+  <si>
+    <t>[(14, 3), (3, 7), (18, 16), (5, 2), (4, 10), (20, 22), (19, 11), (1, 23), (3, 17), (8, 24), (25, 24), (19, 21), (9, 10), (18, 22), (25, 16), (25, 17), (13, 10), (19, 3), (21, 17), (13, 15), (11, 4), (5, 9), (9, 8), (13, 25), (18, 10), (7, 5), (3, 4), (2, 14), (12, 1), (1, 15), (14, 20), (12, 18), (11, 1), (23, 12), (6, 15), (2, 16), (8, 6), (21, 7), (11, 2), (16, 22), (4, 20), (14, 5), (5, 10), (1, 14), (9, 2), (23, 19), (12, 4), (6, 13), (9, 11), (17, 8)]</t>
+  </si>
+  <si>
+    <t>[(21, 11), (20, 3), (23, 14), (16, 6), (17, 10), (23, 17), (16, 9), (24, 9), (3, 21), (4, 24), (11, 5), (12, 25), (23, 12), (20, 6), (7, 15), (8, 14), (16, 22), (24, 5), (6, 8), (21, 20), (4, 1), (8, 10), (4, 5), (14, 19), (16, 18), (2, 1), (4, 16), (4, 6), (10, 14), (11, 8)]</t>
+  </si>
+  <si>
+    <t>[(4, 16), (16, 6), (4, 6), (8, 14), (6, 8), (4, 5), (4, 24), (11, 8), (10, 14), (8, 10), (4, 1), (20, 6), (16, 9), (23, 14), (21, 20), (11, 5), (21, 11), (16, 18), (16, 22), (24, 5), (23, 17), (17, 10), (3, 21), (23, 12), (20, 3), (14, 19), (24, 9), (12, 25), (2, 1), (7, 15)]</t>
+  </si>
+  <si>
     <t>['diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal']</t>
   </si>
   <si>
+    <t>['vertical', 'horizontal', 'vertical', 'diagonal-up', 'vertical', 'horizontal', 'diagonal-down', 'diagonal-up', 'diagonal-up', 'vertical', 'vertical', 'diagonal-up', 'horizontal', 'vertical', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'horizontal', 'diagonal-down', 'horizontal', 'vertical', 'horizontal', 'diagonal-up', 'horizontal', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'vertical', 'horizontal']</t>
+  </si>
+  <si>
+    <t>['vertical', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'diagonal-down', 'vertical', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'vertical', 'horizontal', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'diagonal-down', 'diagonal-up', 'vertical', 'diagonal-down', 'vertical', 'vertical', 'horizontal', 'vertical', 'vertical', 'vertical', 'horizontal', 'diagonal-down', 'horizontal', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'horizontal', 'diagonal-up']</t>
+  </si>
+  <si>
+    <t>['diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'diagonal-down', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal']</t>
+  </si>
+  <si>
+    <t>['horizontal', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'horizontal', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'vertical', 'diagonal-up', 'diagonal-up', 'horizontal', 'vertical', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'vertical', 'diagonal-up', 'horizontal', 'diagonal-up', 'vertical', 'horizontal', 'vertical']</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
@@ -89,6 +122,12 @@
   </si>
   <si>
     <t>40%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>10%</t>
   </si>
   <si>
     <t>initial try</t>
@@ -449,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,16 +519,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>2142</v>
@@ -501,21 +543,21 @@
         <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2142</v>
@@ -527,21 +569,21 @@
         <v>562</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2142</v>
@@ -553,21 +595,21 @@
         <v>533</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2142</v>
@@ -579,21 +621,21 @@
         <v>532</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>2142</v>
@@ -605,21 +647,21 @@
         <v>509</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>2142</v>
@@ -631,21 +673,21 @@
         <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>2142</v>
@@ -657,21 +699,21 @@
         <v>549</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2142</v>
@@ -683,21 +725,21 @@
         <v>509</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>2142</v>
@@ -709,21 +751,21 @@
         <v>506</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>2142</v>
@@ -735,10 +777,126 @@
         <v>546</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1638</v>
+      </c>
+      <c r="E12">
+        <v>291</v>
+      </c>
+      <c r="F12">
+        <v>383</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1638</v>
+      </c>
+      <c r="E13">
+        <v>475</v>
+      </c>
+      <c r="F13">
+        <v>931</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>1638</v>
+      </c>
+      <c r="E14">
+        <v>291</v>
+      </c>
+      <c r="F14">
+        <v>249</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1638</v>
+      </c>
+      <c r="E15">
+        <v>291</v>
+      </c>
+      <c r="F15">
+        <v>389</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Heuristieken_MM/main/test.xlsx
+++ b/Heuristieken_MM/main/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>order</t>
   </si>
@@ -94,6 +94,12 @@
     <t>[(4, 16), (16, 6), (4, 6), (8, 14), (6, 8), (4, 5), (4, 24), (11, 8), (10, 14), (8, 10), (4, 1), (20, 6), (16, 9), (23, 14), (21, 20), (11, 5), (21, 11), (16, 18), (16, 22), (24, 5), (23, 17), (17, 10), (3, 21), (23, 12), (20, 3), (14, 19), (24, 9), (12, 25), (2, 1), (7, 15)]</t>
   </si>
   <si>
+    <t>[(14, 19), (3, 21), (4, 1), (21, 20), (4, 16), (4, 5), (21, 11), (4, 24), (11, 5), (7, 15), (8, 14), (16, 18), (2, 1), (24, 5), (10, 14), (11, 8), (23, 17), (16, 9), (23, 14), (4, 6), (6, 8), (8, 10), (20, 3), (17, 10), (12, 25), (24, 9), (20, 6), (16, 22), (23, 12), (16, 6)]</t>
+  </si>
+  <si>
+    <t>[(4, 1), (11, 8), (2, 1), (4, 24), (4, 6), (24, 9), (24, 5), (16, 22), (17, 10), (4, 16), (12, 25), (23, 12), (14, 19), (7, 15), (20, 3), (16, 6), (16, 18), (8, 14), (11, 5), (21, 20), (23, 14), (16, 9), (23, 17), (4, 5), (6, 8), (21, 11), (20, 6), (8, 10), (3, 21), (10, 14)]</t>
+  </si>
+  <si>
     <t>['diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'diagonal-down', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'vertical', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'horizontal']</t>
   </si>
   <si>
@@ -107,6 +113,12 @@
   </si>
   <si>
     <t>['horizontal', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'horizontal', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'vertical', 'diagonal-up', 'diagonal-up', 'horizontal', 'vertical', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'diagonal-up', 'diagonal-up', 'diagonal-down', 'vertical', 'diagonal-up', 'horizontal', 'diagonal-up', 'vertical', 'horizontal', 'vertical']</t>
+  </si>
+  <si>
+    <t>['horizontal', 'diagonal-down', 'horizontal', 'horizontal', 'horizontal', 'horizontal', 'diagonal-up', 'diagonal-down', 'vertical', 'vertical', 'vertical', 'horizontal', 'horizontal', 'vertical', 'horizontal', 'horizontal', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'horizontal', 'vertical', 'horizontal', 'diagonal-up', 'diagonal-up', 'vertical', 'diagonal-up', 'vertical', 'vertical', 'vertical', 'diagonal-up']</t>
+  </si>
+  <si>
+    <t>['horizontal', 'horizontal', 'horizontal', 'diagonal-down', 'horizontal', 'diagonal-up', 'vertical', 'vertical', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'horizontal', 'vertical', 'diagonal-up', 'diagonal-up', 'horizontal', 'vertical', 'vertical', 'horizontal', 'diagonal-up', 'diagonal-up', 'diagonal-up', 'horizontal', 'vertical', 'diagonal-up', 'vertical', 'horizontal', 'diagonal-down', 'horizontal']</t>
   </si>
   <si>
     <t>0%</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2142</v>
@@ -543,10 +555,10 @@
         <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -557,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2142</v>
@@ -569,10 +581,10 @@
         <v>562</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -583,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2142</v>
@@ -595,10 +607,10 @@
         <v>533</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -609,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2142</v>
@@ -621,10 +633,10 @@
         <v>532</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -635,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>2142</v>
@@ -647,10 +659,10 @@
         <v>509</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -661,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2142</v>
@@ -673,10 +685,10 @@
         <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -687,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2142</v>
@@ -699,10 +711,10 @@
         <v>549</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -713,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>2142</v>
@@ -725,10 +737,10 @@
         <v>509</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -739,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2142</v>
@@ -751,10 +763,10 @@
         <v>506</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -765,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>2142</v>
@@ -777,10 +789,10 @@
         <v>546</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -791,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1638</v>
@@ -803,10 +815,10 @@
         <v>383</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -820,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>1638</v>
@@ -832,10 +844,10 @@
         <v>931</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -849,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>1638</v>
@@ -861,10 +873,10 @@
         <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -878,7 +890,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1638</v>
@@ -890,12 +902,70 @@
         <v>389</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>1638</v>
+      </c>
+      <c r="E16">
+        <v>291</v>
+      </c>
+      <c r="F16">
+        <v>413</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1638</v>
+      </c>
+      <c r="E17">
+        <v>291</v>
+      </c>
+      <c r="F17">
+        <v>413</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
